--- a/java/poi-ren/doc/book.xlsx
+++ b/java/poi-ren/doc/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shigetonakawaka/export/git/github.com/ugonakawaka/pub/java/poi-ren/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B75CA23-E894-0D46-B74C-68020AA8FB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD0201-BD83-C241-9178-FB9A1BFDC8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2780" windowWidth="27500" windowHeight="16440" xr2:uid="{97945BB6-3E1B-6F4A-A649-544051E86DB8}"/>
   </bookViews>
@@ -439,9 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31375383-2E61-A74C-A83A-029A66DA295F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
